--- a/src/test/resources/testData/data.xlsx
+++ b/src/test/resources/testData/data.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="TestData" sheetId="1" r:id="rId1"/>
+    <sheet name="RUNMANAGER" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="DATA" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>username</t>
   </si>
@@ -27,16 +28,76 @@
     <t>rejiva4640@magpit.com</t>
   </si>
   <si>
-    <t>wanid20253@daxiake.com</t>
-  </si>
-  <si>
     <t>accountName</t>
   </si>
   <si>
     <t>Navin Sharma</t>
   </si>
   <si>
-    <t>Naveen Sharma</t>
+    <t>testcasename</t>
+  </si>
+  <si>
+    <t>execute</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>validUserLogintest</t>
+  </si>
+  <si>
+    <t>addNewAddressTest</t>
+  </si>
+  <si>
+    <t>alias</t>
+  </si>
+  <si>
+    <t>MY ADD</t>
+  </si>
+  <si>
+    <t>searchText</t>
+  </si>
+  <si>
+    <t>Printed Summer Dress</t>
+  </si>
+  <si>
+    <t>searchTermResultTest</t>
+  </si>
+  <si>
+    <t>searchTermResultCountTest</t>
+  </si>
+  <si>
+    <t>testdescription</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>To check user is able to add the address.</t>
+  </si>
+  <si>
+    <t>To check valid user is able to login successfully.</t>
+  </si>
+  <si>
+    <t>To check the count of the search result</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>To check that the search term are present in the results list</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -72,8 +133,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -368,50 +430,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="53.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -441,4 +541,118 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>